--- a/analysis/pre_gemini_data/participant220/task-easy.xlsx
+++ b/analysis/pre_gemini_data/participant220/task-easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,92 +422,88 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>condstat</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>exception</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>loopbody</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>methdocall2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>operator</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>var1</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
@@ -556,16 +540,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
         <v>29</v>
@@ -573,29 +557,27 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -608,16 +590,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
         <v>181</v>
@@ -625,29 +607,27 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>348</v>
+        <v>159</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
@@ -660,16 +640,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39875.93</v>
+        <v>29533.32</v>
       </c>
       <c r="C5" t="n">
-        <v>15724.15</v>
+        <v>13622.03</v>
       </c>
       <c r="D5" t="n">
-        <v>11436.25</v>
+        <v>10268.63</v>
       </c>
       <c r="E5" t="n">
-        <v>16833.59</v>
+        <v>14731.47</v>
       </c>
       <c r="F5" t="n">
         <v>61665.59</v>
@@ -677,29 +657,27 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>28503.83</v>
+        <v>25751.21</v>
       </c>
       <c r="J5" t="n">
-        <v>8626.549999999999</v>
+        <v>8142.15</v>
       </c>
       <c r="K5" t="n">
-        <v>2660.93</v>
+        <v>2077.05</v>
       </c>
       <c r="L5" t="n">
-        <v>1935.06</v>
+        <v>1751.74</v>
       </c>
       <c r="M5" t="n">
         <v>278.24</v>
       </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>283.61</v>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>139926.9</v>
+        <v>59677.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>3187.67</v>
+        <v>2986.89</v>
       </c>
       <c r="R5" t="n">
         <v>283.6</v>
@@ -712,16 +690,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.81</v>
+        <v>23.3</v>
       </c>
       <c r="C6" t="n">
-        <v>4.66</v>
+        <v>10.75</v>
       </c>
       <c r="D6" t="n">
-        <v>3.39</v>
+        <v>8.1</v>
       </c>
       <c r="E6" t="n">
-        <v>4.98</v>
+        <v>11.62</v>
       </c>
       <c r="F6" t="n">
         <v>29.22</v>
@@ -729,32 +707,30 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>8.44</v>
+        <v>20.31</v>
       </c>
       <c r="J6" t="n">
-        <v>2.55</v>
+        <v>6.42</v>
       </c>
       <c r="K6" t="n">
-        <v>0.79</v>
+        <v>1.64</v>
       </c>
       <c r="L6" t="n">
-        <v>0.57</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>0.08</v>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>41.43</v>
+        <v>47.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.36</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7">
@@ -764,16 +740,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>486.29</v>
+        <v>428.02</v>
       </c>
       <c r="C7" t="n">
-        <v>524.14</v>
+        <v>544.88</v>
       </c>
       <c r="D7" t="n">
-        <v>476.51</v>
+        <v>513.4299999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>526.05</v>
+        <v>545.61</v>
       </c>
       <c r="F7" t="n">
         <v>340.69</v>
@@ -781,29 +757,27 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>467.28</v>
+        <v>485.87</v>
       </c>
       <c r="J7" t="n">
-        <v>392.12</v>
+        <v>407.11</v>
       </c>
       <c r="K7" t="n">
-        <v>380.13</v>
+        <v>415.41</v>
       </c>
       <c r="L7" t="n">
-        <v>387.01</v>
+        <v>437.94</v>
       </c>
       <c r="M7" t="n">
         <v>139.12</v>
       </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>283.61</v>
-      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>402.09</v>
+        <v>375.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>318.77</v>
+        <v>331.88</v>
       </c>
       <c r="R7" t="n">
         <v>283.6</v>
@@ -848,9 +822,7 @@
         <v>128.07</v>
       </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>283.61</v>
-      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
         <v>250.24</v>
       </c>
@@ -881,26 +853,6 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
